--- a/comparaciones.xlsx
+++ b/comparaciones.xlsx
@@ -569,48 +569,54 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1073,6 +1079,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
